--- a/行业/食品饮料/白酒/白酒.xlsx
+++ b/行业/食品饮料/白酒/白酒.xlsx
@@ -28258,11 +28258,11 @@
   <dimension ref="A1:BQ282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>

--- a/行业/食品饮料/白酒/白酒.xlsx
+++ b/行业/食品饮料/白酒/白酒.xlsx
@@ -370,10 +370,10 @@
     <t>总耗费的单位制造成本</t>
   </si>
   <si>
-    <t>总耗费的单位人员工资成本</t>
+    <t>总耗费的单位能源成本</t>
   </si>
   <si>
-    <t>总耗费的单位能源成本</t>
+    <t>总耗费的单位人员工资成本</t>
   </si>
   <si>
     <t>主品牌单位销售收入</t>
@@ -28262,7 +28262,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN8" sqref="AN8"/>
+      <selection pane="bottomRight" activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -28655,24 +28655,36 @@
         <f t="shared" ref="AG3:AG16" si="1">(AQ3/AX3/1000000)*0.88*500</f>
         <v>51.0568293599664</v>
       </c>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
+      <c r="AH3" s="32">
+        <f t="shared" ref="AH3:AH16" si="2">(AR3/$AX3/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="32">
+        <f t="shared" ref="AI3:AI16" si="3">(AS3/$AX3/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="32">
+        <f t="shared" ref="AJ3:AJ16" si="4">(AT3/$AX3/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="32">
+        <f t="shared" ref="AK3:AK16" si="5">(AU3/$AX3/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
       <c r="AL3" s="36">
-        <f t="shared" ref="AL3:AL19" si="2">AZ3/((BF3*1000*1000)/(0.88*500))</f>
+        <f t="shared" ref="AL3:AL19" si="6">AZ3/((BF3*1000*1000)/(0.88*500))</f>
         <v>1322.7226479638</v>
       </c>
       <c r="AM3" s="36">
-        <f t="shared" ref="AM3:AM19" si="3">BA3/((BG3*1000*1000)/(0.88*500))</f>
+        <f t="shared" ref="AM3:AM19" si="7">BA3/((BG3*1000*1000)/(0.88*500))</f>
         <v>57.2687363619222</v>
       </c>
       <c r="AN3" s="36">
-        <f t="shared" ref="AN3:AN19" si="4">BI3/((BO3*1000*1000)/(0.88*500))</f>
+        <f t="shared" ref="AN3:AN19" si="8">BI3/((BO3*1000*1000)/(0.88*500))</f>
         <v>291.265939405042</v>
       </c>
       <c r="AO3" s="36">
-        <f t="shared" ref="AO3:AO19" si="5">BJ3/((BP3*1000*1000)/(0.88*500))</f>
+        <f t="shared" ref="AO3:AO19" si="9">BJ3/((BP3*1000*1000)/(0.88*500))</f>
         <v>42.7808370826773</v>
       </c>
       <c r="AP3" s="32">
@@ -28774,7 +28786,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="31">
-        <f t="shared" ref="AC4:AC16" si="6">AZ4/I4</f>
+        <f t="shared" ref="AC4:AC16" si="10">AZ4/I4</f>
         <v>0.868926841487923</v>
       </c>
       <c r="AD4" s="31">
@@ -28793,24 +28805,36 @@
         <f t="shared" si="1"/>
         <v>47.3880452316968</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
+      <c r="AH4" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL4" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1251.84911482913</v>
       </c>
       <c r="AM4" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>48.5290520606283</v>
       </c>
       <c r="AN4" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>231.643961229268</v>
       </c>
       <c r="AO4" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45.5399945045458</v>
       </c>
       <c r="AP4" s="32">
@@ -28912,15 +28936,15 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.880161746194423</v>
       </c>
       <c r="AD5" s="31">
-        <f t="shared" ref="AD5:AD19" si="7">(BF5-BF6)/BF6</f>
+        <f t="shared" ref="AD5:AD19" si="11">(BF5-BF6)/BF6</f>
         <v>0.0567949958805136</v>
       </c>
       <c r="AE5" s="31">
-        <f t="shared" ref="AE5:AE19" si="8">(BG5-BG6)/BG6</f>
+        <f t="shared" ref="AE5:AE19" si="12">(BG5-BG6)/BG6</f>
         <v>0.124157636970274</v>
       </c>
       <c r="AF5" s="32">
@@ -28931,24 +28955,36 @@
         <f t="shared" si="1"/>
         <v>46.1754225622333</v>
       </c>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
+      <c r="AH5" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL5" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1134.11195930356</v>
       </c>
       <c r="AM5" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43.4599407170779</v>
       </c>
       <c r="AN5" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>183.637625915358</v>
       </c>
       <c r="AO5" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>51.6039263645053</v>
       </c>
       <c r="AP5" s="39">
@@ -29050,15 +29086,15 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.893753311453512</v>
       </c>
       <c r="AD6" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.00723125610850617</v>
       </c>
       <c r="AE6" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.00625887496892695</v>
       </c>
       <c r="AF6" s="32">
@@ -29069,24 +29105,36 @@
         <f t="shared" si="1"/>
         <v>47.3211531479896</v>
       </c>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
+      <c r="AH6" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL6" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1087.81287305144</v>
       </c>
       <c r="AM6" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>44.6728793485122</v>
       </c>
       <c r="AN6" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>147.800021319535</v>
       </c>
       <c r="AO6" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>52.6585457132071</v>
       </c>
       <c r="AP6" s="39">
@@ -29188,15 +29236,15 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.887307541158792</v>
       </c>
       <c r="AD7" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.0646412405144783</v>
       </c>
       <c r="AE7" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.00505358283561515</v>
       </c>
       <c r="AF7" s="32">
@@ -29207,24 +29255,36 @@
         <f t="shared" si="1"/>
         <v>43.1811767910045</v>
       </c>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
+      <c r="AH7" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL7" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>965.006949771712</v>
       </c>
       <c r="AM7" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>41.5297341229913</v>
       </c>
       <c r="AN7" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>139.567805730257</v>
       </c>
       <c r="AO7" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>46.4629389023653</v>
       </c>
       <c r="AP7" s="39">
@@ -29326,15 +29386,15 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.889304341012085</v>
       </c>
       <c r="AD8" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.0747687839838546</v>
       </c>
       <c r="AE8" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.159778783284717</v>
       </c>
       <c r="AF8" s="32">
@@ -29345,24 +29405,36 @@
         <f t="shared" si="1"/>
         <v>40.3353290306202</v>
       </c>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
+      <c r="AH8" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL8" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>887.582758969269</v>
       </c>
       <c r="AM8" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.3052566736183</v>
       </c>
       <c r="AN8" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>119.364464349298</v>
       </c>
       <c r="AO8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>50.0788150459721</v>
       </c>
       <c r="AP8" s="39">
@@ -29464,15 +29536,15 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.899969413283264</v>
       </c>
       <c r="AD9" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.318001925152917</v>
       </c>
       <c r="AE9" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.0894386598878271</v>
       </c>
       <c r="AF9" s="32">
@@ -29483,24 +29555,36 @@
         <f t="shared" si="1"/>
         <v>40.7987005593657</v>
       </c>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
+      <c r="AH9" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL9" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>763.221079305663</v>
       </c>
       <c r="AM9" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.6648307651688</v>
       </c>
       <c r="AN9" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>84.964844585424</v>
       </c>
       <c r="AO9" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>45.1591446320868</v>
       </c>
       <c r="AP9" s="39">
@@ -29602,15 +29686,15 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.944733514574952</v>
       </c>
       <c r="AD10" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE10" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF10" s="32">
@@ -29621,24 +29705,36 @@
         <f t="shared" si="1"/>
         <v>24.7846744948677</v>
       </c>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
+      <c r="AH10" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL10" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>704.886182457651</v>
       </c>
       <c r="AM10" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.700710425587</v>
       </c>
       <c r="AN10" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>66.7075618766495</v>
       </c>
       <c r="AO10" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21.1237943383568</v>
       </c>
       <c r="AP10" s="39">
@@ -29740,15 +29836,15 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.965892753150501</v>
       </c>
       <c r="AD11" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE11" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF11" s="32">
@@ -29759,24 +29855,36 @@
         <f t="shared" si="1"/>
         <v>37.6075072812833</v>
       </c>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
+      <c r="AH11" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL11" s="36" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM11" s="36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN11" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO11" s="36" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP11" s="39">
@@ -29870,15 +29978,15 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.970339331982642</v>
       </c>
       <c r="AD12" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE12" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF12" s="32">
@@ -29889,24 +29997,36 @@
         <f t="shared" si="1"/>
         <v>43.5944614930465</v>
       </c>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
+      <c r="AH12" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL12" s="36" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM12" s="36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN12" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO12" s="36" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP12" s="39">
@@ -30000,15 +30120,15 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD13" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE13" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF13" s="32">
@@ -30019,24 +30139,36 @@
         <f t="shared" si="1"/>
         <v>37.0797290312534</v>
       </c>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
+      <c r="AH13" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AL13" s="36" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM13" s="36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AN13" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO13" s="36" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AP13" s="39">
@@ -30120,15 +30252,15 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD14" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE14" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF14" s="32"/>
@@ -30137,22 +30269,10 @@
       <c r="AI14" s="32"/>
       <c r="AJ14" s="32"/>
       <c r="AK14" s="32"/>
-      <c r="AL14" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM14" s="36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN14" s="36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO14" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
       <c r="AP14" s="32"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="32"/>
@@ -30212,15 +30332,15 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="31" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD15" s="31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE15" s="31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF15" s="32"/>
@@ -30229,22 +30349,10 @@
       <c r="AI15" s="32"/>
       <c r="AJ15" s="32"/>
       <c r="AK15" s="32"/>
-      <c r="AL15" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM15" s="36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN15" s="36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO15" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
       <c r="AP15" s="32"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="32"/>
@@ -30312,22 +30420,10 @@
       <c r="AI16" s="32"/>
       <c r="AJ16" s="32"/>
       <c r="AK16" s="32"/>
-      <c r="AL16" s="36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM16" s="36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN16" s="36" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO16" s="36" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
       <c r="AP16" s="32"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="32"/>
@@ -30405,11 +30501,11 @@
         <v>0.754203405137574</v>
       </c>
       <c r="AD17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.179779052734375</v>
       </c>
       <c r="AE17" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.187742298245095</v>
       </c>
       <c r="AF17" s="32">
@@ -30420,24 +30516,36 @@
         <f>(AQ17/AX17/1000000)*0.88*500</f>
         <v>33.0416573147398</v>
       </c>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
+      <c r="AH17" s="32">
+        <f>(AR17/$AX17/1000000)*0.88*500</f>
+        <v>25.8333438376665</v>
+      </c>
+      <c r="AI17" s="32">
+        <f>(AS17/$AX17/1000000)*0.88*500</f>
+        <v>5.17157621529821</v>
+      </c>
+      <c r="AJ17" s="32">
+        <f>(AT17/$AX17/1000000)*0.88*500</f>
+        <v>2.65501163537425</v>
+      </c>
+      <c r="AK17" s="32">
+        <f>(AU17/$AX17/1000000)*0.88*500</f>
+        <v>14.5157518476328</v>
+      </c>
       <c r="AL17" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>714.808809289604</v>
       </c>
       <c r="AM17" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>91.9704377808596</v>
       </c>
       <c r="AN17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>49.8387445909487</v>
       </c>
       <c r="AO17" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16.6133128976404</v>
       </c>
       <c r="AP17" s="40">
@@ -30555,39 +30663,51 @@
         <v>0.748089697882115</v>
       </c>
       <c r="AD18" s="31">
+        <f t="shared" si="11"/>
+        <v>0.12207649898983</v>
+      </c>
+      <c r="AE18" s="31">
+        <f t="shared" si="12"/>
+        <v>0.189488876372853</v>
+      </c>
+      <c r="AF18" s="32">
+        <f t="shared" ref="AF18:AF27" si="13">(AP18/AW18/1000000)*0.88*500</f>
+        <v>233.778945728215</v>
+      </c>
+      <c r="AG18" s="32">
+        <f t="shared" ref="AG18:AG27" si="14">(AQ18/AX18/1000000)*0.88*500</f>
+        <v>41.6526507074756</v>
+      </c>
+      <c r="AH18" s="32">
+        <f t="shared" ref="AH18:AH27" si="15">(AR18/$AX18/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="32">
+        <f t="shared" ref="AI18:AI27" si="16">(AS18/$AX18/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="32">
+        <f t="shared" ref="AJ18:AJ27" si="17">(AT18/$AX18/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="32">
+        <f t="shared" ref="AK18:AK27" si="18">(AU18/$AX18/1000000)*0.88*500</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="32">
+        <f t="shared" si="6"/>
+        <v>743.026072816785</v>
+      </c>
+      <c r="AM18" s="32">
         <f t="shared" si="7"/>
-        <v>0.12207649898983</v>
-      </c>
-      <c r="AE18" s="31">
+        <v>96.8048616644432</v>
+      </c>
+      <c r="AN18" s="6">
         <f t="shared" si="8"/>
-        <v>0.189488876372853</v>
-      </c>
-      <c r="AF18" s="32">
-        <f t="shared" ref="AF18:AF27" si="9">(AP18/AW18/1000000)*0.88*500</f>
-        <v>233.778945728215</v>
-      </c>
-      <c r="AG18" s="32">
-        <f t="shared" ref="AG18:AG27" si="10">(AQ18/AX18/1000000)*0.88*500</f>
-        <v>41.6526507074756</v>
-      </c>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32">
-        <f t="shared" si="2"/>
-        <v>743.026072816785</v>
-      </c>
-      <c r="AM18" s="32">
-        <f t="shared" si="3"/>
-        <v>96.8048616644432</v>
-      </c>
-      <c r="AN18" s="6">
-        <f t="shared" si="4"/>
         <v>56.9966646222199</v>
       </c>
       <c r="AO18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>22.145565908425</v>
       </c>
       <c r="AP18" s="41">
@@ -30697,39 +30817,51 @@
         <v>0.741771864934151</v>
       </c>
       <c r="AD19" s="31">
+        <f t="shared" si="11"/>
+        <v>0.037812288993923</v>
+      </c>
+      <c r="AE19" s="31">
+        <f t="shared" si="12"/>
+        <v>0.094636251541307</v>
+      </c>
+      <c r="AF19" s="32">
+        <f t="shared" si="13"/>
+        <v>149.42654158659</v>
+      </c>
+      <c r="AG19" s="32">
+        <f t="shared" si="14"/>
+        <v>28.3649485618974</v>
+      </c>
+      <c r="AH19" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="32">
+        <f t="shared" si="6"/>
+        <v>739.968010008807</v>
+      </c>
+      <c r="AM19" s="32">
         <f t="shared" si="7"/>
-        <v>0.037812288993923</v>
-      </c>
-      <c r="AE19" s="31">
+        <v>109.597410145804</v>
+      </c>
+      <c r="AN19" s="6">
         <f t="shared" si="8"/>
-        <v>0.094636251541307</v>
-      </c>
-      <c r="AF19" s="32">
+        <v>36.3941208125685</v>
+      </c>
+      <c r="AO19" s="6">
         <f t="shared" si="9"/>
-        <v>149.42654158659</v>
-      </c>
-      <c r="AG19" s="32">
-        <f t="shared" si="10"/>
-        <v>28.3649485618974</v>
-      </c>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32">
-        <f t="shared" si="2"/>
-        <v>739.968010008807</v>
-      </c>
-      <c r="AM19" s="32">
-        <f t="shared" si="3"/>
-        <v>109.597410145804</v>
-      </c>
-      <c r="AN19" s="6">
-        <f t="shared" si="4"/>
-        <v>36.3941208125685</v>
-      </c>
-      <c r="AO19" s="6">
-        <f t="shared" si="5"/>
         <v>13.9699253961637</v>
       </c>
       <c r="AP19" s="41">
@@ -30839,25 +30971,37 @@
         <v>0.768663886736111</v>
       </c>
       <c r="AD20" s="31" t="e">
-        <f t="shared" ref="AD20:AD25" si="11">(BF20-BF21)/BF21</f>
+        <f t="shared" ref="AD20:AD25" si="19">(BF20-BF21)/BF21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AE20" s="31" t="e">
-        <f t="shared" ref="AE20:AE25" si="12">(BG20-BG21)/BG21</f>
+        <f t="shared" ref="AE20:AE25" si="20">(BG20-BG21)/BG21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF20" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>143.79556366592</v>
       </c>
       <c r="AG20" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>28.6509756570745</v>
       </c>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
+      <c r="AH20" s="32">
+        <f t="shared" si="15"/>
+        <v>22.9381201235477</v>
+      </c>
+      <c r="AI20" s="32">
+        <f t="shared" si="16"/>
+        <v>3.89785284938582</v>
+      </c>
+      <c r="AJ20" s="32">
+        <f t="shared" si="17"/>
+        <v>2.20601347446783</v>
+      </c>
+      <c r="AK20" s="32">
+        <f t="shared" si="18"/>
+        <v>11.9907027039986</v>
+      </c>
       <c r="AL20" s="32">
         <f>AZ20/((BF20*1000*1000)/(0.88*500))</f>
         <v>688.961102899165</v>
@@ -30989,25 +31133,37 @@
         <v>0.791544769467529</v>
       </c>
       <c r="AD21" s="31" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE21" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF21" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>123.164778362537</v>
       </c>
       <c r="AG21" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24.2759987710992</v>
       </c>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
+      <c r="AH21" s="32">
+        <f t="shared" si="15"/>
+        <v>16.7586253116716</v>
+      </c>
+      <c r="AI21" s="32">
+        <f t="shared" si="16"/>
+        <v>3.15653391040458</v>
+      </c>
+      <c r="AJ21" s="32">
+        <f t="shared" si="17"/>
+        <v>2.50487489069126</v>
+      </c>
+      <c r="AK21" s="32">
+        <f t="shared" si="18"/>
+        <v>11.0554958436698</v>
+      </c>
       <c r="AL21" s="32"/>
       <c r="AM21" s="32"/>
       <c r="AN21" s="6"/>
@@ -31115,25 +31271,37 @@
         <v>0.754159490303739</v>
       </c>
       <c r="AD22" s="31" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE22" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF22" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>86.6972722289818</v>
       </c>
       <c r="AG22" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19.3921017903609</v>
       </c>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
+      <c r="AH22" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL22" s="32"/>
       <c r="AM22" s="32"/>
       <c r="AN22" s="6"/>
@@ -31233,25 +31401,37 @@
         <v>0.708705739716529</v>
       </c>
       <c r="AD23" s="31" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE23" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF23" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>68.6665897016538</v>
       </c>
       <c r="AG23" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15.9718437253114</v>
       </c>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
+      <c r="AH23" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL23" s="32"/>
       <c r="AM23" s="32"/>
       <c r="AN23" s="6"/>
@@ -31351,25 +31531,37 @@
         <v>0.709592224684371</v>
       </c>
       <c r="AD24" s="31" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE24" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF24" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>67.1790508424943</v>
       </c>
       <c r="AG24" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16.2406001861582</v>
       </c>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
+      <c r="AH24" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL24" s="32"/>
       <c r="AM24" s="32"/>
       <c r="AN24" s="6"/>
@@ -31469,25 +31661,37 @@
         <v>0.715956997405266</v>
       </c>
       <c r="AD25" s="31" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE25" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF25" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>65.1670210725164</v>
       </c>
       <c r="AG25" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.3415107059359</v>
       </c>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
+      <c r="AH25" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL25" s="32"/>
       <c r="AM25" s="32"/>
       <c r="AN25" s="6"/>
@@ -31586,17 +31790,29 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>74.1275635656288</v>
       </c>
       <c r="AG26" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.9323482676782</v>
       </c>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
+      <c r="AH26" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL26" s="32"/>
       <c r="AM26" s="32"/>
       <c r="AN26" s="6"/>
@@ -31685,17 +31901,29 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>69.0273662742314</v>
       </c>
       <c r="AG27" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17.3759225117403</v>
       </c>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
+      <c r="AH27" s="32">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="32">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="AL27" s="32"/>
       <c r="AM27" s="32"/>
       <c r="AN27" s="6"/>
